--- a/test-data/cts_basic_search_functionality-data.xlsx
+++ b/test-data/cts_basic_search_functionality-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cgov_workspace\cgov-digital-platform-qa\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E51B-69E1-4759-9980-185DBD935639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE8F55-C066-384E-B673-BE0B0F3114BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_search" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>path</t>
   </si>
@@ -71,9 +71,6 @@
     <t>ResultsAge</t>
   </si>
   <si>
-    <t>Central Nervous System Neuroblastoma</t>
-  </si>
-  <si>
     <t>ResultsZip</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>C3768</t>
-  </si>
-  <si>
-    <t>C114775</t>
   </si>
   <si>
     <t>CancerKeyWords</t>
@@ -560,21 +554,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCB40F-6965-4647-B9F4-0250EB72F8C6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -614,19 +608,19 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -640,19 +634,19 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -666,19 +660,19 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -692,7 +686,7 @@
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>123</v>
@@ -701,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -718,42 +712,16 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>28201</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -766,20 +734,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6ACDCA-BBCE-6845-9351-00F3A72EB0AA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,22 +755,22 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -813,19 +781,19 @@
         <v>99999</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -833,42 +801,42 @@
         <v>-1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3">
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -885,58 +853,58 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="43.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="6" width="46.875" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="1" max="2" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="6" width="46.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/cts_basic_search_functionality-data.xlsx
+++ b/test-data/cts_basic_search_functionality-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cgov_workspace\cgov-digital-platform-qa\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E51B-69E1-4759-9980-185DBD935639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373D385-D17B-714F-8405-6284A5B6C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{02E62B52-A561-7E40-BFFB-9E993FCF680A}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_search" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>path</t>
   </si>
@@ -62,18 +62,12 @@
     <t>AIDS-Related Lymphoma</t>
   </si>
   <si>
-    <t>Acinar Cell Carcinoma</t>
-  </si>
-  <si>
     <t>ResultsCTK</t>
   </si>
   <si>
     <t>ResultsAge</t>
   </si>
   <si>
-    <t>Central Nervous System Neuroblastoma</t>
-  </si>
-  <si>
     <t>ResultsZip</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
   </si>
   <si>
     <t>C153201</t>
-  </si>
-  <si>
-    <t>C3768</t>
-  </si>
-  <si>
-    <t>C114775</t>
   </si>
   <si>
     <t>CancerKeyWords</t>
@@ -560,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCB40F-6965-4647-B9F4-0250EB72F8C6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="75.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,19 +576,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -614,19 +602,19 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -640,19 +628,19 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -666,19 +654,19 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -692,7 +680,7 @@
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>123</v>
@@ -701,15 +689,15 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>22030</v>
@@ -718,42 +706,16 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>28201</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -766,20 +728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6ACDCA-BBCE-6845-9351-00F3A72EB0AA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,22 +749,22 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -813,19 +775,19 @@
         <v>99999</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -833,42 +795,42 @@
         <v>-1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -881,62 +843,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D25B56-660D-484F-847A-5F8835FDBCFC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="43.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="6" width="46.875" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="1" max="2" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="6" width="46.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
